--- a/Part2-Regression/Practice/HousePrice_Analysis.xlsx
+++ b/Part2-Regression/Practice/HousePrice_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z003z7n/Documents/AI2019/Part2-Regression/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF39AF-7649-BC4D-A14F-A377ABA8213D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17870044-CC10-0A48-B9E2-858D05031776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40560" yWindow="2160" windowWidth="27640" windowHeight="16940" xr2:uid="{E3ABDB74-871A-FB42-86A8-3241D447925E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" xr2:uid="{E3ABDB74-871A-FB42-86A8-3241D447925E}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns_Analysis" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="131">
   <si>
     <t>Column Name</t>
   </si>
@@ -139,6 +139,285 @@
   </si>
   <si>
     <t>Physical locations within Ames city limits</t>
+  </si>
+  <si>
+    <t>Condition1</t>
+  </si>
+  <si>
+    <t>Proximity to various conditions</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>Proximity to various conditions (if more than one is present)</t>
+  </si>
+  <si>
+    <t>BldgType</t>
+  </si>
+  <si>
+    <t>Type of dwelling</t>
+  </si>
+  <si>
+    <t>HouseStyle</t>
+  </si>
+  <si>
+    <t>Style of dwelling</t>
+  </si>
+  <si>
+    <t>OverallQual</t>
+  </si>
+  <si>
+    <t>Rates the overall material and finish of the house</t>
+  </si>
+  <si>
+    <t>OverallCond</t>
+  </si>
+  <si>
+    <t>Rates the overall condition of the house</t>
+  </si>
+  <si>
+    <t>Of importance</t>
+  </si>
+  <si>
+    <t>YearBuilt</t>
+  </si>
+  <si>
+    <t>Original construction date</t>
+  </si>
+  <si>
+    <t>YearRemodAdd</t>
+  </si>
+  <si>
+    <t>Identified by Numbers (Years)</t>
+  </si>
+  <si>
+    <t>Remodel date (same as construction date if no remodeling or additions)</t>
+  </si>
+  <si>
+    <t>RoofStyle</t>
+  </si>
+  <si>
+    <t>Type of roof</t>
+  </si>
+  <si>
+    <t>RoofMatl</t>
+  </si>
+  <si>
+    <t>Roof material</t>
+  </si>
+  <si>
+    <t>Exterior1st</t>
+  </si>
+  <si>
+    <t>Exterior covering on house</t>
+  </si>
+  <si>
+    <t>Exterior2nd</t>
+  </si>
+  <si>
+    <t>Exterior covering on house (if more than one material)</t>
+  </si>
+  <si>
+    <t>MasVnrType</t>
+  </si>
+  <si>
+    <t>Masonry veneer area in square feet</t>
+  </si>
+  <si>
+    <t>ExterQual</t>
+  </si>
+  <si>
+    <t>Evaluates the quality of the material on the exterior</t>
+  </si>
+  <si>
+    <t>Of importance as it relates to material on the exterior.</t>
+  </si>
+  <si>
+    <t>ExterCond</t>
+  </si>
+  <si>
+    <t>Evaluates the present condition of the material on the exterior</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>Type of foundation</t>
+  </si>
+  <si>
+    <t>BsmtQual</t>
+  </si>
+  <si>
+    <t>Evaluates the height of the basement</t>
+  </si>
+  <si>
+    <t>BsmtCond</t>
+  </si>
+  <si>
+    <t>Evaluates the general condition of the basement</t>
+  </si>
+  <si>
+    <t>BsmtExposure</t>
+  </si>
+  <si>
+    <t>Refers to walkout or garden level walls</t>
+  </si>
+  <si>
+    <t>BsmtFinType1</t>
+  </si>
+  <si>
+    <t>Rating of basement finished area</t>
+  </si>
+  <si>
+    <t>BsmtFinSF1</t>
+  </si>
+  <si>
+    <t>Type 1 finished square feet</t>
+  </si>
+  <si>
+    <t>BsmtFinType2</t>
+  </si>
+  <si>
+    <t>Rating of basement finished area (if multiple types)</t>
+  </si>
+  <si>
+    <t>BsmtFinSF2</t>
+  </si>
+  <si>
+    <t>Type 2 finished square feet</t>
+  </si>
+  <si>
+    <t>BsmtUnfSF</t>
+  </si>
+  <si>
+    <t>Unfinished square feet of basement area</t>
+  </si>
+  <si>
+    <t>TotalBsmtSF</t>
+  </si>
+  <si>
+    <t>Total square feet of basement area</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Type of heating</t>
+  </si>
+  <si>
+    <t>HeatingQC</t>
+  </si>
+  <si>
+    <t>Heating quality and condition</t>
+  </si>
+  <si>
+    <t>CentralAir</t>
+  </si>
+  <si>
+    <t>Central air conditioning</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>Electrical system</t>
+  </si>
+  <si>
+    <t>1stFlrSF</t>
+  </si>
+  <si>
+    <t>First Floor square feet</t>
+  </si>
+  <si>
+    <t>2ndFlrSF</t>
+  </si>
+  <si>
+    <t>Second floor square feet</t>
+  </si>
+  <si>
+    <t>LowQualFinSF</t>
+  </si>
+  <si>
+    <t>Low quality finished square feet (all floors)</t>
+  </si>
+  <si>
+    <t>GrLivArea</t>
+  </si>
+  <si>
+    <t>Above grade (ground) living area square feet</t>
+  </si>
+  <si>
+    <t>BsmtFullBath</t>
+  </si>
+  <si>
+    <t>Basement full bathrooms</t>
+  </si>
+  <si>
+    <t>BsmtHalfBath</t>
+  </si>
+  <si>
+    <t>Basement half bathrooms</t>
+  </si>
+  <si>
+    <t>FullBath</t>
+  </si>
+  <si>
+    <t>Full bathrooms above grade</t>
+  </si>
+  <si>
+    <t>HalfBath</t>
+  </si>
+  <si>
+    <t>Half baths above grade</t>
+  </si>
+  <si>
+    <t>KitchenQual</t>
+  </si>
+  <si>
+    <t>Kitchen quality</t>
+  </si>
+  <si>
+    <t>TotRmsAbvGrd</t>
+  </si>
+  <si>
+    <t>Total rooms above grade (does not include bathrooms)</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Home functionality (Assume typical unless deductions are warranted)</t>
+  </si>
+  <si>
+    <t>Fireplaces</t>
+  </si>
+  <si>
+    <t>Number of fireplaces</t>
+  </si>
+  <si>
+    <t>FireplaceQu</t>
+  </si>
+  <si>
+    <t>Fireplace quality</t>
+  </si>
+  <si>
+    <t>GarageType</t>
+  </si>
+  <si>
+    <t>Garage location</t>
+  </si>
+  <si>
+    <t>GarageYrBlt</t>
+  </si>
+  <si>
+    <t>Year garage was built</t>
+  </si>
+  <si>
+    <t>GarageFinish</t>
+  </si>
+  <si>
+    <t>Interior finish of the garage</t>
   </si>
 </sst>
 </file>
@@ -512,18 +791,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7307907-8A62-CF45-87CB-25429CB4E75A}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -725,6 +1004,654 @@
         <v>37</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Part2-Regression/Practice/HousePrice_Analysis.xlsx
+++ b/Part2-Regression/Practice/HousePrice_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z003z7n/Documents/AI2019/Part2-Regression/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17870044-CC10-0A48-B9E2-858D05031776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2C0E8A-2979-CB4E-AAA8-440ADBD457A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" xr2:uid="{E3ABDB74-871A-FB42-86A8-3241D447925E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="169">
   <si>
     <t>Column Name</t>
   </si>
@@ -418,6 +418,120 @@
   </si>
   <si>
     <t>Interior finish of the garage</t>
+  </si>
+  <si>
+    <t>GarageCars</t>
+  </si>
+  <si>
+    <t>Size of garage in car capacity</t>
+  </si>
+  <si>
+    <t>GarageArea</t>
+  </si>
+  <si>
+    <t>Size of garage in square feet</t>
+  </si>
+  <si>
+    <t>GarageQual</t>
+  </si>
+  <si>
+    <t>Garage quality</t>
+  </si>
+  <si>
+    <t>GarageCond</t>
+  </si>
+  <si>
+    <t>Garage condition</t>
+  </si>
+  <si>
+    <t>PavedDrive</t>
+  </si>
+  <si>
+    <t>Paved driveway</t>
+  </si>
+  <si>
+    <t>WoodDeckSF</t>
+  </si>
+  <si>
+    <t>Wood deck area in square feet</t>
+  </si>
+  <si>
+    <t>OpenPorchSF</t>
+  </si>
+  <si>
+    <t>Open porch area in square feet</t>
+  </si>
+  <si>
+    <t>EnclosedPorch</t>
+  </si>
+  <si>
+    <t>Enclosed porch area in square feet</t>
+  </si>
+  <si>
+    <t>3SsnPorch</t>
+  </si>
+  <si>
+    <t>Three season porch area in square feet</t>
+  </si>
+  <si>
+    <t>ScreenPorch</t>
+  </si>
+  <si>
+    <t>Screen porch area in square feet</t>
+  </si>
+  <si>
+    <t>PoolArea</t>
+  </si>
+  <si>
+    <t>Pool area in square feet</t>
+  </si>
+  <si>
+    <t>PoolQC</t>
+  </si>
+  <si>
+    <t>Pool quality</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>Fence quality</t>
+  </si>
+  <si>
+    <t>MiscFeature</t>
+  </si>
+  <si>
+    <t>Miscellaneous feature not covered in other categories</t>
+  </si>
+  <si>
+    <t>MiscVal</t>
+  </si>
+  <si>
+    <t>$Value of miscellaneous feature</t>
+  </si>
+  <si>
+    <t>MoSold</t>
+  </si>
+  <si>
+    <t>Month Sold (MM)</t>
+  </si>
+  <si>
+    <t>YrSold</t>
+  </si>
+  <si>
+    <t>Year Sold (YYYY)</t>
+  </si>
+  <si>
+    <t>SaleType</t>
+  </si>
+  <si>
+    <t>Type of sale</t>
+  </si>
+  <si>
+    <t>SaleCondition</t>
+  </si>
+  <si>
+    <t>Condition of sale</t>
   </si>
 </sst>
 </file>
@@ -791,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7307907-8A62-CF45-87CB-25429CB4E75A}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1652,6 +1766,272 @@
         <v>130</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Part2-Regression/Practice/HousePrice_Analysis.xlsx
+++ b/Part2-Regression/Practice/HousePrice_Analysis.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z003z7n/Documents/AI2019/Part2-Regression/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2C0E8A-2979-CB4E-AAA8-440ADBD457A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2311CB-FB58-2A41-BA4E-0C6650B671A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" xr2:uid="{E3ABDB74-871A-FB42-86A8-3241D447925E}"/>
+    <workbookView xWindow="4160" yWindow="960" windowWidth="19900" windowHeight="13960" xr2:uid="{E3ABDB74-871A-FB42-86A8-3241D447925E}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns_Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Univariate_Study" sheetId="2" r:id="rId2"/>
+    <sheet name="Multivariate_Study" sheetId="3" r:id="rId3"/>
+    <sheet name="Basic Cleaning" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Assumptions" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Columns_Analysis!$A$1:$G$77</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="175">
   <si>
     <t>Column Name</t>
   </si>
@@ -132,9 +139,6 @@
     <t>Configuration of the Lot</t>
   </si>
   <si>
-    <t>Slope of land at Lot</t>
-  </si>
-  <si>
     <t>Neighborhood</t>
   </si>
   <si>
@@ -532,6 +536,27 @@
   </si>
   <si>
     <t>Condition of sale</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Effect on Prediction (Expectation)</t>
+  </si>
+  <si>
+    <t>Reality of effect on SalePrice(y)</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Slope of land at Lot ( Same as LandContour)</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -559,7 +584,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,12 +616,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,23 +937,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7307907-8A62-CF45-87CB-25429CB4E75A}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="48.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="62.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -935,10 +968,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -951,8 +990,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -965,8 +1007,11 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1024,11 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -993,8 +1041,11 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1007,8 +1058,11 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1022,10 +1076,13 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1038,8 +1095,11 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1052,8 +1112,11 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1067,10 +1130,13 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1084,10 +1150,13 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1101,938 +1170,1191 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G77" xr:uid="{EDF25B53-D942-984E-82B5-EC0984834908}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A37937-379A-5547-803D-8D3C6BE99BD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDE5524-C0F0-B24F-9157-3697D9A982BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED895FBE-09E2-1140-9C0E-8D545D135040}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E62F06-3197-BC49-B5B8-83A345FEA961}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>